--- a/team_specific_matrix/Alabama A&M_A.xlsx
+++ b/team_specific_matrix/Alabama A&M_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1852941176470588</v>
+        <v>0.1939546599496222</v>
       </c>
       <c r="C2">
-        <v>0.5764705882352941</v>
+        <v>0.5642317380352645</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02058823529411765</v>
+        <v>0.01763224181360202</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1294117647058824</v>
+        <v>0.1360201511335013</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08823529411764706</v>
+        <v>0.08816120906801007</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01492537313432836</v>
+        <v>0.01310043668122271</v>
       </c>
       <c r="C3">
-        <v>0.01492537313432836</v>
+        <v>0.01310043668122271</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02487562189054726</v>
+        <v>0.03930131004366812</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7562189054726368</v>
+        <v>0.7336244541484717</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1890547263681592</v>
+        <v>0.2008733624454148</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07142857142857142</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6428571428571429</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2857142857142857</v>
+        <v>0.2741935483870968</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0379746835443038</v>
+        <v>0.03888888888888889</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01265822784810127</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="E6">
-        <v>0.006329113924050633</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="F6">
-        <v>0.04430379746835443</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3417721518987342</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.006329113924050633</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1329113924050633</v>
+        <v>0.1222222222222222</v>
       </c>
       <c r="R6">
-        <v>0.04430379746835443</v>
+        <v>0.03888888888888889</v>
       </c>
       <c r="S6">
-        <v>0.3734177215189873</v>
+        <v>0.3944444444444444</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1355932203389831</v>
+        <v>0.1245283018867925</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01271186440677966</v>
+        <v>0.01509433962264151</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03389830508474576</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1144067796610169</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01694915254237288</v>
+        <v>0.01509433962264151</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2203389830508475</v>
+        <v>0.2188679245283019</v>
       </c>
       <c r="R7">
-        <v>0.05508474576271186</v>
+        <v>0.06037735849056604</v>
       </c>
       <c r="S7">
-        <v>0.4110169491525424</v>
+        <v>0.3962264150943396</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.16</v>
+        <v>0.1653944020356234</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02571428571428571</v>
+        <v>0.02290076335877863</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06285714285714286</v>
+        <v>0.06106870229007633</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1228571428571429</v>
+        <v>0.1246819338422392</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01428571428571429</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1457142857142857</v>
+        <v>0.1577608142493639</v>
       </c>
       <c r="R8">
-        <v>0.04857142857142857</v>
+        <v>0.04580152671755725</v>
       </c>
       <c r="S8">
-        <v>0.42</v>
+        <v>0.4071246819338422</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1385542168674699</v>
+        <v>0.155</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02409638554216868</v>
+        <v>0.035</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08433734939759036</v>
+        <v>0.08</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08433734939759036</v>
+        <v>0.095</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02409638554216868</v>
+        <v>0.02</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.144578313253012</v>
+        <v>0.145</v>
       </c>
       <c r="R9">
-        <v>0.05421686746987952</v>
+        <v>0.06</v>
       </c>
       <c r="S9">
-        <v>0.4457831325301205</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1398728428701181</v>
+        <v>0.1404893449092344</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03360581289736603</v>
+        <v>0.03078137332280979</v>
       </c>
       <c r="E10">
-        <v>0.0009082652134423251</v>
+        <v>0.001578531965272297</v>
       </c>
       <c r="F10">
-        <v>0.05358764759309718</v>
+        <v>0.05209155485398579</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1180744777475023</v>
+        <v>0.1207576953433307</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01544050862851953</v>
+        <v>0.01499605367008682</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1952770208900999</v>
+        <v>0.1949486977111287</v>
       </c>
       <c r="R10">
-        <v>0.03996366939146231</v>
+        <v>0.03867403314917127</v>
       </c>
       <c r="S10">
-        <v>0.4032697547683924</v>
+        <v>0.4056827150749803</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1394101876675603</v>
+        <v>0.1358024691358025</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07238605898123325</v>
+        <v>0.0691358024691358</v>
       </c>
       <c r="K11">
-        <v>0.1876675603217158</v>
+        <v>0.182716049382716</v>
       </c>
       <c r="L11">
-        <v>0.5817694369973191</v>
+        <v>0.5950617283950618</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01876675603217158</v>
+        <v>0.01728395061728395</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7342342342342343</v>
+        <v>0.7459677419354839</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2117117117117117</v>
+        <v>0.2056451612903226</v>
       </c>
       <c r="K12">
-        <v>0.004504504504504504</v>
+        <v>0.004032258064516129</v>
       </c>
       <c r="L12">
-        <v>0.01801801801801802</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03153153153153153</v>
+        <v>0.0282258064516129</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6585365853658537</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2195121951219512</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1219512195121951</v>
+        <v>0.108695652173913</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.005376344086021506</v>
+        <v>0.004807692307692308</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1505376344086022</v>
+        <v>0.1490384615384615</v>
       </c>
       <c r="I15">
-        <v>0.08064516129032258</v>
+        <v>0.08653846153846154</v>
       </c>
       <c r="J15">
-        <v>0.3440860215053764</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="K15">
-        <v>0.07526881720430108</v>
+        <v>0.07211538461538461</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02150537634408602</v>
+        <v>0.02403846153846154</v>
       </c>
       <c r="N15">
-        <v>0.005376344086021506</v>
+        <v>0.004807692307692308</v>
       </c>
       <c r="O15">
-        <v>0.05913978494623656</v>
+        <v>0.0625</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2580645161290323</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.008888888888888889</v>
+        <v>0.01185770750988142</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1555555555555556</v>
+        <v>0.1541501976284585</v>
       </c>
       <c r="I16">
-        <v>0.06222222222222222</v>
+        <v>0.06324110671936758</v>
       </c>
       <c r="J16">
-        <v>0.3822222222222222</v>
+        <v>0.383399209486166</v>
       </c>
       <c r="K16">
-        <v>0.1688888888888889</v>
+        <v>0.1620553359683795</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03111111111111111</v>
+        <v>0.03162055335968379</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.08</v>
+        <v>0.08300395256916997</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1111111111111111</v>
+        <v>0.1106719367588933</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01944444444444444</v>
+        <v>0.01927710843373494</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.15</v>
+        <v>0.1373493975903614</v>
       </c>
       <c r="I17">
-        <v>0.08333333333333333</v>
+        <v>0.09156626506024096</v>
       </c>
       <c r="J17">
-        <v>0.3972222222222222</v>
+        <v>0.4144578313253012</v>
       </c>
       <c r="K17">
-        <v>0.1333333333333333</v>
+        <v>0.1301204819277108</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01666666666666667</v>
+        <v>0.01686746987951807</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05833333333333333</v>
+        <v>0.05783132530120482</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1416666666666667</v>
+        <v>0.1325301204819277</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.06666666666666667</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1111111111111111</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="I18">
-        <v>0.08888888888888889</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="J18">
-        <v>0.2888888888888889</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="K18">
-        <v>0.1444444444444444</v>
+        <v>0.1274509803921569</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03333333333333333</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07777777777777778</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1888888888888889</v>
+        <v>0.1862745098039216</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01406120760959471</v>
+        <v>0.01392961876832845</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1885856079404467</v>
+        <v>0.187683284457478</v>
       </c>
       <c r="I19">
-        <v>0.08188585607940446</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="J19">
-        <v>0.3531844499586435</v>
+        <v>0.3563049853372434</v>
       </c>
       <c r="K19">
-        <v>0.1546732837055418</v>
+        <v>0.1495601173020528</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01902398676592225</v>
+        <v>0.01832844574780059</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05789909015715467</v>
+        <v>0.05718475073313783</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.130686517783292</v>
+        <v>0.1282991202346041</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Alabama A&M_A.xlsx
+++ b/team_specific_matrix/Alabama A&M_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1939546599496222</v>
+        <v>0.1977272727272727</v>
       </c>
       <c r="C2">
-        <v>0.5642317380352645</v>
+        <v>0.5613636363636364</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01763224181360202</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1360201511335013</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08816120906801007</v>
+        <v>0.08636363636363636</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01310043668122271</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="C3">
-        <v>0.01310043668122271</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03930131004366812</v>
+        <v>0.04365079365079365</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7336244541484717</v>
+        <v>0.7261904761904762</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2008733624454148</v>
+        <v>0.2063492063492063</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08064516129032258</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6451612903225806</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2741935483870968</v>
+        <v>0.2698412698412698</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03888888888888889</v>
+        <v>0.03465346534653466</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01666666666666667</v>
+        <v>0.01485148514851485</v>
       </c>
       <c r="E6">
-        <v>0.005555555555555556</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="F6">
-        <v>0.04444444444444445</v>
+        <v>0.04950495049504951</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3333333333333333</v>
+        <v>0.3366336633663367</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.005555555555555556</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1222222222222222</v>
+        <v>0.1435643564356436</v>
       </c>
       <c r="R6">
-        <v>0.03888888888888889</v>
+        <v>0.04455445544554455</v>
       </c>
       <c r="S6">
-        <v>0.3944444444444444</v>
+        <v>0.3663366336633663</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1245283018867925</v>
+        <v>0.1310344827586207</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01509433962264151</v>
+        <v>0.01379310344827586</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03773584905660377</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1320754716981132</v>
+        <v>0.1241379310344828</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01509433962264151</v>
+        <v>0.02068965517241379</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2188679245283019</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="R7">
-        <v>0.06037735849056604</v>
+        <v>0.05517241379310345</v>
       </c>
       <c r="S7">
-        <v>0.3962264150943396</v>
+        <v>0.4137931034482759</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1653944020356234</v>
+        <v>0.160092807424594</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02290076335877863</v>
+        <v>0.02088167053364269</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06106870229007633</v>
+        <v>0.06032482598607888</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1246819338422392</v>
+        <v>0.122969837587007</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01526717557251908</v>
+        <v>0.01392111368909513</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1577608142493639</v>
+        <v>0.1647331786542924</v>
       </c>
       <c r="R8">
-        <v>0.04580152671755725</v>
+        <v>0.04408352668213457</v>
       </c>
       <c r="S8">
-        <v>0.4071246819338422</v>
+        <v>0.4129930394431555</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.155</v>
+        <v>0.1493212669683258</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.035</v>
+        <v>0.03167420814479638</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08</v>
+        <v>0.07239819004524888</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.095</v>
+        <v>0.09954751131221719</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02</v>
+        <v>0.01809954751131222</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.145</v>
+        <v>0.1493212669683258</v>
       </c>
       <c r="R9">
-        <v>0.06</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="S9">
-        <v>0.41</v>
+        <v>0.4208144796380091</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1404893449092344</v>
+        <v>0.1420454545454546</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03078137332280979</v>
+        <v>0.02840909090909091</v>
       </c>
       <c r="E10">
-        <v>0.001578531965272297</v>
+        <v>0.001420454545454545</v>
       </c>
       <c r="F10">
-        <v>0.05209155485398579</v>
+        <v>0.05397727272727273</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1207576953433307</v>
+        <v>0.1186079545454545</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01499605367008682</v>
+        <v>0.015625</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1949486977111287</v>
+        <v>0.1960227272727273</v>
       </c>
       <c r="R10">
-        <v>0.03867403314917127</v>
+        <v>0.03835227272727273</v>
       </c>
       <c r="S10">
-        <v>0.4056827150749803</v>
+        <v>0.4055397727272727</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1358024691358025</v>
+        <v>0.1324200913242009</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0691358024691358</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="K11">
-        <v>0.182716049382716</v>
+        <v>0.1872146118721461</v>
       </c>
       <c r="L11">
-        <v>0.5950617283950618</v>
+        <v>0.5958904109589042</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01728395061728395</v>
+        <v>0.01598173515981735</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7459677419354839</v>
+        <v>0.7649253731343284</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2056451612903226</v>
+        <v>0.1902985074626866</v>
       </c>
       <c r="K12">
-        <v>0.004032258064516129</v>
+        <v>0.003731343283582089</v>
       </c>
       <c r="L12">
-        <v>0.01612903225806452</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0282258064516129</v>
+        <v>0.02611940298507463</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6739130434782609</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2173913043478261</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.108695652173913</v>
+        <v>0.1020408163265306</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.004807692307692308</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1490384615384615</v>
+        <v>0.1495726495726496</v>
       </c>
       <c r="I15">
-        <v>0.08653846153846154</v>
+        <v>0.08974358974358974</v>
       </c>
       <c r="J15">
         <v>0.3461538461538461</v>
       </c>
       <c r="K15">
-        <v>0.07211538461538461</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02403846153846154</v>
+        <v>0.02136752136752137</v>
       </c>
       <c r="N15">
-        <v>0.004807692307692308</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="O15">
-        <v>0.0625</v>
+        <v>0.05982905982905983</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.25</v>
+        <v>0.2521367521367521</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01185770750988142</v>
+        <v>0.01090909090909091</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1541501976284585</v>
+        <v>0.1527272727272727</v>
       </c>
       <c r="I16">
-        <v>0.06324110671936758</v>
+        <v>0.06545454545454546</v>
       </c>
       <c r="J16">
-        <v>0.383399209486166</v>
+        <v>0.4072727272727273</v>
       </c>
       <c r="K16">
-        <v>0.1620553359683795</v>
+        <v>0.1490909090909091</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03162055335968379</v>
+        <v>0.02909090909090909</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.08300395256916997</v>
+        <v>0.08</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1106719367588933</v>
+        <v>0.1054545454545455</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01927710843373494</v>
+        <v>0.01931330472103004</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1373493975903614</v>
+        <v>0.1437768240343348</v>
       </c>
       <c r="I17">
-        <v>0.09156626506024096</v>
+        <v>0.09012875536480687</v>
       </c>
       <c r="J17">
-        <v>0.4144578313253012</v>
+        <v>0.4163090128755365</v>
       </c>
       <c r="K17">
-        <v>0.1301204819277108</v>
+        <v>0.1266094420600858</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01686746987951807</v>
+        <v>0.01716738197424893</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05783132530120482</v>
+        <v>0.06008583690987124</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1325301204819277</v>
+        <v>0.1266094420600858</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.05882352941176471</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1470588235294118</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="I18">
-        <v>0.07843137254901961</v>
+        <v>0.07207207207207207</v>
       </c>
       <c r="J18">
-        <v>0.2941176470588235</v>
+        <v>0.3423423423423423</v>
       </c>
       <c r="K18">
-        <v>0.1274509803921569</v>
+        <v>0.1171171171171171</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02941176470588235</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07843137254901961</v>
+        <v>0.07207207207207207</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1862745098039216</v>
+        <v>0.1801801801801802</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01392961876832845</v>
+        <v>0.01389808074123097</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.187683284457478</v>
+        <v>0.1833223031105228</v>
       </c>
       <c r="I19">
-        <v>0.08870967741935484</v>
+        <v>0.08802117802779616</v>
       </c>
       <c r="J19">
-        <v>0.3563049853372434</v>
+        <v>0.356717405691595</v>
       </c>
       <c r="K19">
-        <v>0.1495601173020528</v>
+        <v>0.1482461945731304</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01832844574780059</v>
+        <v>0.01786896095301125</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05718475073313783</v>
+        <v>0.06022501654533421</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1282991202346041</v>
+        <v>0.1317008603573792</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Alabama A&M_A.xlsx
+++ b/team_specific_matrix/Alabama A&M_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1977272727272727</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="C2">
-        <v>0.5613636363636364</v>
+        <v>0.5676274944567627</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01818181818181818</v>
+        <v>0.01773835920177384</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1363636363636364</v>
+        <v>0.1352549889135255</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08636363636363636</v>
+        <v>0.08425720620842572</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0119047619047619</v>
+        <v>0.01145038167938931</v>
       </c>
       <c r="C3">
-        <v>0.0119047619047619</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04365079365079365</v>
+        <v>0.04961832061068702</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7261904761904762</v>
+        <v>0.7213740458015268</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2063492063492063</v>
+        <v>0.2022900763358779</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07936507936507936</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6507936507936508</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2698412698412698</v>
+        <v>0.2615384615384616</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03465346534653466</v>
+        <v>0.03286384976525822</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01485148514851485</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="E6">
-        <v>0.004950495049504951</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="F6">
-        <v>0.04950495049504951</v>
+        <v>0.04694835680751173</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3366336633663367</v>
+        <v>0.3380281690140845</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.004950495049504951</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1435643564356436</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="R6">
-        <v>0.04455445544554455</v>
+        <v>0.04694835680751173</v>
       </c>
       <c r="S6">
-        <v>0.3663366336633663</v>
+        <v>0.3708920187793427</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1310344827586207</v>
+        <v>0.132013201320132</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01379310344827586</v>
+        <v>0.0132013201320132</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03448275862068965</v>
+        <v>0.03630363036303631</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1241379310344828</v>
+        <v>0.1287128712871287</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02068965517241379</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2068965517241379</v>
+        <v>0.2145214521452145</v>
       </c>
       <c r="R7">
-        <v>0.05517241379310345</v>
+        <v>0.05280528052805281</v>
       </c>
       <c r="S7">
-        <v>0.4137931034482759</v>
+        <v>0.4026402640264026</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.160092807424594</v>
+        <v>0.1584821428571428</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02088167053364269</v>
+        <v>0.02232142857142857</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06032482598607888</v>
+        <v>0.06026785714285714</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.122969837587007</v>
+        <v>0.1227678571428571</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01392111368909513</v>
+        <v>0.01339285714285714</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1647331786542924</v>
+        <v>0.1674107142857143</v>
       </c>
       <c r="R8">
-        <v>0.04408352668213457</v>
+        <v>0.04464285714285714</v>
       </c>
       <c r="S8">
-        <v>0.4129930394431555</v>
+        <v>0.4107142857142857</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1493212669683258</v>
+        <v>0.1486486486486487</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03167420814479638</v>
+        <v>0.03153153153153153</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07239819004524888</v>
+        <v>0.07207207207207207</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09954751131221719</v>
+        <v>0.1036036036036036</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01809954751131222</v>
+        <v>0.01801801801801802</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1493212669683258</v>
+        <v>0.1486486486486487</v>
       </c>
       <c r="R9">
-        <v>0.05882352941176471</v>
+        <v>0.05855855855855856</v>
       </c>
       <c r="S9">
-        <v>0.4208144796380091</v>
+        <v>0.4189189189189189</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1420454545454546</v>
+        <v>0.1415807560137457</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02840909090909091</v>
+        <v>0.0288659793814433</v>
       </c>
       <c r="E10">
-        <v>0.001420454545454545</v>
+        <v>0.001374570446735395</v>
       </c>
       <c r="F10">
-        <v>0.05397727272727273</v>
+        <v>0.05429553264604811</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1186079545454545</v>
+        <v>0.1175257731958763</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.015625</v>
+        <v>0.01512027491408935</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1960227272727273</v>
+        <v>0.1965635738831615</v>
       </c>
       <c r="R10">
-        <v>0.03835227272727273</v>
+        <v>0.03711340206185567</v>
       </c>
       <c r="S10">
-        <v>0.4055397727272727</v>
+        <v>0.4075601374570447</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1324200913242009</v>
+        <v>0.1299559471365639</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0684931506849315</v>
+        <v>0.06828193832599119</v>
       </c>
       <c r="K11">
-        <v>0.1872146118721461</v>
+        <v>0.1850220264317181</v>
       </c>
       <c r="L11">
-        <v>0.5958904109589042</v>
+        <v>0.6013215859030837</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01598173515981735</v>
+        <v>0.01541850220264317</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7649253731343284</v>
+        <v>0.7624113475177305</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1902985074626866</v>
+        <v>0.1879432624113475</v>
       </c>
       <c r="K12">
-        <v>0.003731343283582089</v>
+        <v>0.003546099290780142</v>
       </c>
       <c r="L12">
-        <v>0.01492537313432836</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02611940298507463</v>
+        <v>0.02482269503546099</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.673469387755102</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2244897959183673</v>
+        <v>0.2115384615384615</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1020408163265306</v>
+        <v>0.09615384615384616</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1218,10 +1218,10 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01282051282051282</v>
+        <v>0.01244813278008299</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1495726495726496</v>
+        <v>0.1493775933609958</v>
       </c>
       <c r="I15">
-        <v>0.08974358974358974</v>
+        <v>0.08713692946058091</v>
       </c>
       <c r="J15">
-        <v>0.3461538461538461</v>
+        <v>0.3485477178423236</v>
       </c>
       <c r="K15">
-        <v>0.0641025641025641</v>
+        <v>0.06639004149377593</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02136752136752137</v>
+        <v>0.02074688796680498</v>
       </c>
       <c r="N15">
-        <v>0.004273504273504274</v>
+        <v>0.008298755186721992</v>
       </c>
       <c r="O15">
-        <v>0.05982905982905983</v>
+        <v>0.05809128630705394</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2521367521367521</v>
+        <v>0.2489626556016598</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01090909090909091</v>
+        <v>0.01060070671378092</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1527272727272727</v>
+        <v>0.1484098939929329</v>
       </c>
       <c r="I16">
-        <v>0.06545454545454546</v>
+        <v>0.06360424028268551</v>
       </c>
       <c r="J16">
-        <v>0.4072727272727273</v>
+        <v>0.4098939929328622</v>
       </c>
       <c r="K16">
-        <v>0.1490909090909091</v>
+        <v>0.1448763250883392</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02909090909090909</v>
+        <v>0.03180212014134275</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.08</v>
+        <v>0.08480565371024736</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1054545454545455</v>
+        <v>0.1060070671378092</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01931330472103004</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1437768240343348</v>
+        <v>0.1460905349794239</v>
       </c>
       <c r="I17">
-        <v>0.09012875536480687</v>
+        <v>0.08847736625514403</v>
       </c>
       <c r="J17">
-        <v>0.4163090128755365</v>
+        <v>0.4176954732510288</v>
       </c>
       <c r="K17">
-        <v>0.1266094420600858</v>
+        <v>0.1255144032921811</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01716738197424893</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06008583690987124</v>
+        <v>0.06172839506172839</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1266094420600858</v>
+        <v>0.1234567901234568</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.05405405405405406</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1351351351351351</v>
+        <v>0.1403508771929824</v>
       </c>
       <c r="I18">
-        <v>0.07207207207207207</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="J18">
-        <v>0.3423423423423423</v>
+        <v>0.3508771929824561</v>
       </c>
       <c r="K18">
-        <v>0.1171171171171171</v>
+        <v>0.1140350877192982</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07207207207207207</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1801801801801802</v>
+        <v>0.1754385964912281</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01389808074123097</v>
+        <v>0.0154539600772698</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1833223031105228</v>
+        <v>0.1854475209272376</v>
       </c>
       <c r="I19">
-        <v>0.08802117802779616</v>
+        <v>0.08564069542820348</v>
       </c>
       <c r="J19">
-        <v>0.356717405691595</v>
+        <v>0.3541532517707663</v>
       </c>
       <c r="K19">
-        <v>0.1482461945731304</v>
+        <v>0.150032195750161</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01786896095301125</v>
+        <v>0.0180296200901481</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06022501654533421</v>
+        <v>0.05988409529942048</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1317008603573792</v>
+        <v>0.1313586606567933</v>
       </c>
     </row>
   </sheetData>
